--- a/Actual_Air_Export_Shipment_Tracking.xlsx
+++ b/Actual_Air_Export_Shipment_Tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Videos\Documents\FireAI\Isa Logistics\Excel to Data Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90109C32-2CF3-49B8-912C-C64BA6D341AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C59F86-7909-49F0-98EC-8D382DA7C851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,12 +535,6 @@
     <t>Inco_Terms</t>
   </si>
   <si>
-    <t>HBL_MBL_Draft</t>
-  </si>
-  <si>
-    <t>Shipping_Bill_Checklist</t>
-  </si>
-  <si>
     <t>Gate_in_Confirmation</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
     <t>Line_Invoice_Payment</t>
   </si>
   <si>
-    <t>HBL_MBL_Release</t>
-  </si>
-  <si>
     <t>Pre_Alert</t>
   </si>
   <si>
@@ -569,6 +560,15 @@
   </si>
   <si>
     <t>Quotation_Remarks</t>
+  </si>
+  <si>
+    <t>HBL_and_MBL_Draft</t>
+  </si>
+  <si>
+    <t>HBL_and_MBL_Release</t>
+  </si>
+  <si>
+    <t>Shipping_Bill_Check_list</t>
   </si>
 </sst>
 </file>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1570,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>164</v>
@@ -1615,37 +1615,37 @@
         <v>6</v>
       </c>
       <c r="Q1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="V1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="X1" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
